--- a/versions/v14/docs/ics-attack-v14.0/ics-attack-v14.0-techniques.xlsx
+++ b/versions/v14/docs/ics-attack-v14.0/ics-attack-v14.0-techniques.xlsx
@@ -1732,31 +1732,31 @@
     <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),,</t>
   </si>
   <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),,</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ukraine15 - EISAC - 201603),,</t>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),,</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Anton Cherepanov, ESET June 2017),,</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),,</t>
   </si>
   <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),</t>
-  </si>
-  <si>
-    <t>,(Citation: M. Rentschler and H. Heine),(Citation: Department of Homeland Security October 2009),(Citation: CISA June 2013),</t>
-  </si>
-  <si>
-    <t>(Citation: Wylie-22),(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Dragos-Pipedream),(Citation: Department of Homeland Security September 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer),(Citation: Dragos October 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
-  </si>
-  <si>
-    <t>(Citation: MDudek-ICS),(Citation: Booz Allen Hamilton),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: CISA June 2013),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ESET Industroyer),(Citation: Dragos October 2018),,</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Booz Allen Hamilton),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014),</t>
   </si>
   <si>
     <t>(Citation: Wylie-22),(Citation: Booz Allen Hamilton),(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014),</t>
@@ -1765,61 +1765,61 @@
     <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),</t>
   </si>
   <si>
-    <t>(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Dragos Inc. June 2017),(Citation: Brubaker-Incontroller),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),</t>
+    <t>(Citation: Dragos-Pipedream),(Citation: Anton Cherepanov),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013),</t>
   </si>
   <si>
     <t>(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
   </si>
   <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
+    <t>(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Marshall Abrams July 2008),(Citation: Ukraine15 - EISAC - 201603),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ukraine15 - EISAC - 201603),,</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),</t>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Marshall Abrams July 2008),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine),</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ICS-CERT August 2018),,</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Department of Homeland Security September 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),,</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: MITRE June 2020),(Citation: McCarthy, J et al. July 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Wylie-22),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),</t>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security September 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec Security Response July 2014),(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),,</t>
+  </si>
+  <si>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),</t>
+  </si>
+  <si>
+    <t>(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),</t>
   </si>
   <si>
     <t>(Citation: Ukraine15 - EISAC - 201603),,</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Wylie-22),,</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
+    <t>(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),,</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
@@ -1828,16 +1828,16 @@
     <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Wylie-22),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Booz Allen Hamilton),(Citation: Joe Slowik April 2019),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Ukraine15 - EISAC - 201603),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),</t>
-  </si>
-  <si>
-    <t>(Citation: Davey Winder June 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: Ukraine15 - EISAC - 201603),(Citation: Kelly Jackson Higgins),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Catalin Cimpanu April 2016),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security October 2009),</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: Booz Allen Hamilton),(Citation: Wylie-22),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014),</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Catalin Cimpanu April 2016),(Citation: Booz Allen Hamilton),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine),</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Kevin Beaumont),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine),</t>
+  </si>
+  <si>
+    <t>(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Davey Winder June 2020),(Citation: Ukraine15 - EISAC - 201603),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Hydro),(Citation: Kelly Jackson Higgins),(Citation: Catalin Cimpanu April 2016),(Citation: Booz Allen Hamilton),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),</t>
   </si>
   <si>
     <t>(Citation: Joe Slowik August 2019),,</t>
@@ -1846,112 +1846,112 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ukraine15 - EISAC - 201603),(Citation: Department of Homeland Security October 2009),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),,</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet),(Citation: Department of Homeland Security October 2009),</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: FireEye TRITON),,</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos Threat Intelligence February 2020),(Citation: FireEye TRITON),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),,</t>
   </si>
   <si>
     <t>(Citation: Marshall Abrams July 2008),(Citation: Department of Homeland Security September 2016),(Citation: N/A),</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: Industroyer2 Mandiant April 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: PLCTop20 Mar 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Industroyer2 Forescout July 2022),,</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),,</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Wylie-22),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
-  </si>
-  <si>
-    <t>(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: MDudek-ICS),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Department of Homeland Security September 2016),</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019),(Citation: IEC February 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Wylie-22),(Citation: PLCTop20 Mar 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Industroyer2 Forescout July 2022),,</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),,</t>
+  </si>
+  <si>
+    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),,</t>
+  </si>
+  <si>
+    <t>(Citation: Wylie-22),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
+  </si>
+  <si>
+    <t>(Citation: CISA-AA22-103A),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Brubaker-Incontroller),(Citation: Jos Wetzels January 2018),(Citation: Wylie-22),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Wylie-22),(Citation: Brubaker-Incontroller),(Citation: Department of Homeland Security September 2016),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013),</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Max Heinemeyer February 2020),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: Andy Greenberg June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Brubaker-Incontroller),(Citation: North America Transmission Forum December 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Wylie-22),(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: DHS CISA February 2019),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Industroyer2 Forescout July 2022),(Citation: Wylie-22),(Citation: Industroyer2 ESET April 2022),(Citation: CISA-AA22-103A),(Citation: ICS-CERT August 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ESET Industroyer),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),,</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Dragos-Pipedream),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Brubaker-Incontroller),(Citation: Max Heinemeyer February 2020),(Citation: Wylie-22),(Citation: Andy Greenberg June 2017),(Citation: North America Transmission Forum December 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos-Pipedream),(Citation: CISA-AA22-103A),(Citation: DHS CISA February 2019),(Citation: Charles McLellan March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Wylie-22),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: ESET Industroyer),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Wylie-22),(Citation: Industroyer2 ESET April 2022),(Citation: ICS-CERT August 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Langer Stuxnet),(Citation: Symantec June 2015),,</t>
   </si>
   <si>
     <t>(Citation: Langer Stuxnet),(Citation: IEC February 2019),</t>
   </si>
   <si>
-    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),,</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Symantec March 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),,</t>
-  </si>
-  <si>
-    <t>(Citation: Industroyer2 Mandiant April 2022),(Citation: McAfee Labs October 2019),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Department of Homeland Security September 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),,</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: CISA-AA22-103A),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Booz Allen Hamilton),(Citation: Robert Falcone, Bryan Lee May 2016),,</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Ukraine15 - EISAC - 201603),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel),(Citation: Department of Homeland Security September 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: ESET),(Citation: McAfee Labs October 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: National Security Agency February 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Forescout July 2022),(Citation: Ukraine15 - EISAC - 201603),(Citation: CISA-AA22-103A),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),,</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: Ukraine15 - EISAC - 201603),(Citation: Wylie-22),(Citation: Dragos),(Citation: CISA-AA22-103A),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: CISA June 2013),</t>
-  </si>
-  <si>
-    <t>(Citation: Marshall Abrams July 2008),(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019),</t>
+    <t>(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),,</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Symantec March 2019),(Citation: Dragos),(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),,</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Eduard Kovacs March 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Novetta Threat Research Group February 2016),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),,</t>
+  </si>
+  <si>
+    <t>(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: CISA-AA22-103A),(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),,</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021),</t>
+  </si>
+  <si>
+    <t>(Citation: Ukraine15 - EISAC - 201603),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: McAfee Labs October 2019),(Citation: SecureWorks September 2019),(Citation: ESET),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: North America Transmission Forum December 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 Forescout July 2022),(Citation: Ukraine15 - EISAC - 201603),(Citation: CISA-AA22-103A),(Citation: Marshall Abrams July 2008),(Citation: Industroyer2 Mandiant April 2022),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit),(Citation: Tom Fakterman August 2019),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),,</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: Ukraine15 - EISAC - 201603),(Citation: Dragos),(Citation: CISA-AA22-103A),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Wylie-22),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),</t>
+  </si>
+  <si>
+    <t>(Citation: Marshall Abrams July 2008),(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010),</t>
   </si>
   <si>
     <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019),</t>
